--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malfridurannaeiriksdottir/Desktop/02807_final_project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/vedisingvars/Documents/DTU_3/Computational/GitHub/02807_final_project/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4241F44D-FE31-D041-A6B7-36C107CC90EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38F577D2-6989-E544-B432-66597191AF0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{F691B454-2F94-E342-B9F7-1611CCBB1FB4}"/>
+    <workbookView xWindow="6660" yWindow="4540" windowWidth="28040" windowHeight="17260" xr2:uid="{F691B454-2F94-E342-B9F7-1611CCBB1FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,6 +33,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Hello</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -402,12 +410,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F0EFBA19-6C87-FC40-B322-553869C8A98E}">
-  <dimension ref="A1"/>
+  <dimension ref="F11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="11" spans="6:6" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>